--- a/doc/新人教育訓練.xlsx
+++ b/doc/新人教育訓練.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>備註</t>
   </si>
@@ -111,11 +111,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>群組加入確認</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>版本控制講解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開會</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立 AN 空專案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AN 路由設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AN 建立組件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AN RxJS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AN Bootstrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立 Koa2  空專案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Koa API restful 設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Koa DB 讀取(MySQL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活動通框架設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料庫欄位規劃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,16 +445,16 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,13 +773,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BB24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK10" sqref="AK10"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -770,86 +818,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="17.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="14" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="14" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="15" t="s">
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="14" t="s">
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="15" t="s">
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="14" t="s">
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="15" t="s">
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="14" t="s">
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="15" t="s">
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="14" t="s">
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1072,13 +1120,16 @@
       <c r="BB3" s="6"/>
     </row>
     <row r="4" spans="1:54">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="9">
         <v>42992</v>
       </c>
-      <c r="AN4" s="17"/>
+      <c r="AN4" s="14"/>
     </row>
     <row r="5" spans="1:54">
       <c r="C5" s="7" t="s">
@@ -1087,7 +1138,7 @@
       <c r="E5" s="9">
         <v>42992</v>
       </c>
-      <c r="AN5" s="17"/>
+      <c r="AN5" s="14"/>
     </row>
     <row r="6" spans="1:54">
       <c r="C6" s="7" t="s">
@@ -1096,7 +1147,7 @@
       <c r="E6" s="9">
         <v>42992</v>
       </c>
-      <c r="AN6" s="17"/>
+      <c r="AN6" s="14"/>
     </row>
     <row r="7" spans="1:54">
       <c r="C7" s="7" t="s">
@@ -1105,9 +1156,12 @@
       <c r="E7" s="9">
         <v>42992</v>
       </c>
-      <c r="AN7" s="17"/>
+      <c r="AN7" s="14"/>
     </row>
     <row r="9" spans="1:54">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
@@ -1122,18 +1176,64 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
-      <c r="C12" s="7" t="s">
-        <v>26</v>
+    <row r="13" spans="1:54">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54">
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54">
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54">
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AE1:AH1"/>
@@ -1142,6 +1242,11 @@
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/doc/新人教育訓練.xlsx
+++ b/doc/新人教育訓練.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20475" windowHeight="8070"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20475" windowHeight="8070" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="iShare-工程紀錄" sheetId="4" r:id="rId1"/>
+    <sheet name="教育訓練-前端" sheetId="6" r:id="rId1"/>
+    <sheet name="教育訓練-後端" sheetId="4" r:id="rId2"/>
+    <sheet name="教育訓練-資料庫" sheetId="7" r:id="rId3"/>
+    <sheet name="開會紀錄" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t>備註</t>
   </si>
@@ -99,22 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>認識語法、框架、工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能夠建立小型專案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>確認負責分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本控制講解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>開會</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,47 +110,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建立 AN 空專案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AN 路由設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AN 建立組件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AN RxJS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AN Bootstrap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>後端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建立 Koa2  空專案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Koa API restful 設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Koa DB 讀取(MySQL)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活動通框架設計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料庫欄位規劃</t>
+    <t>技術指導</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職務分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技術導入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新建立Angular專案</t>
+  </si>
+  <si>
+    <t>2.新建立帶有router的Angular專案</t>
+  </si>
+  <si>
+    <t>3.實作建立Component組件,將網頁分成head、containr、footer,三種組件</t>
+  </si>
+  <si>
+    <t>4.實作資料綁定與事件綁定,例如 [(ngModel)]、(click)</t>
+  </si>
+  <si>
+    <t>5.引用Bootstrap套件於Angular中,並使用於網頁中</t>
+  </si>
+  <si>
+    <t>1.新建立koa2專案</t>
+  </si>
+  <si>
+    <t>2.試著加入相關Middleware(例如logger、koa-bodyparser)</t>
+  </si>
+  <si>
+    <t>3.實作router(get、post)</t>
+  </si>
+  <si>
+    <t>4.實作讓服務不中斷(即使cmd視窗關掉服務仍在)</t>
+  </si>
+  <si>
+    <t>5.使用樣板(ejs、pug任一種)</t>
+  </si>
+  <si>
+    <t>6.活動通框架設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考網站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料庫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.了解mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.了解mongodb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.基本資料表規劃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,6 +270,15 @@
       <name val="微軟正黑體 Light"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -354,7 +376,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,8 +423,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,17 +473,29 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="16" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="17">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般_103資訊工作管控表" xfId="1"/>
     <cellStyle name="一般_其聯" xfId="2"/>
@@ -466,6 +503,7 @@
     <cellStyle name="好_Sheet1" xfId="4"/>
     <cellStyle name="好_其聯" xfId="5"/>
     <cellStyle name="常规_102_系統&amp;伺服器&amp;網路" xfId="6"/>
+    <cellStyle name="超連結" xfId="16" builtinId="8"/>
     <cellStyle name="標題 1 1" xfId="7"/>
     <cellStyle name="標題 1 2" xfId="8"/>
     <cellStyle name="標題 1 3" xfId="9"/>
@@ -773,13 +811,1138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB24"/>
+  <dimension ref="A1:BA9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="52.75" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="17.25" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+    </row>
+    <row r="2" spans="1:53" ht="20.25" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1">
+        <v>11</v>
+      </c>
+      <c r="P2" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2">
+        <v>8</v>
+      </c>
+      <c r="S2" s="2">
+        <v>15</v>
+      </c>
+      <c r="T2" s="2">
+        <v>22</v>
+      </c>
+      <c r="U2" s="2">
+        <v>29</v>
+      </c>
+      <c r="V2" s="1">
+        <v>6</v>
+      </c>
+      <c r="W2" s="1">
+        <v>13</v>
+      </c>
+      <c r="X2" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>26</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>9</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>23</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>7</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>14</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>28</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>11</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>18</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>25</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>9</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>16</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>23</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+    </row>
+    <row r="4" spans="1:53" ht="16.5">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9">
+        <v>42998</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN4" s="14"/>
+    </row>
+    <row r="5" spans="1:53">
+      <c r="C5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="9">
+        <v>42998</v>
+      </c>
+      <c r="AN5" s="14"/>
+    </row>
+    <row r="6" spans="1:53" ht="31.5">
+      <c r="C6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9">
+        <v>42998</v>
+      </c>
+      <c r="AN6" s="14"/>
+    </row>
+    <row r="7" spans="1:53">
+      <c r="C7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9">
+        <v>42998</v>
+      </c>
+      <c r="AN7" s="14"/>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="C8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9">
+        <v>42998</v>
+      </c>
+      <c r="AN8" s="14"/>
+    </row>
+    <row r="9" spans="1:53">
+      <c r="C9" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AN4" sqref="AN4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="52.75" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="17.25" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+    </row>
+    <row r="2" spans="1:53" ht="20.25" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1">
+        <v>11</v>
+      </c>
+      <c r="P2" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2">
+        <v>8</v>
+      </c>
+      <c r="S2" s="2">
+        <v>15</v>
+      </c>
+      <c r="T2" s="2">
+        <v>22</v>
+      </c>
+      <c r="U2" s="2">
+        <v>29</v>
+      </c>
+      <c r="V2" s="1">
+        <v>6</v>
+      </c>
+      <c r="W2" s="1">
+        <v>13</v>
+      </c>
+      <c r="X2" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>26</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>9</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>23</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>7</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>14</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>28</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>11</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>18</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>25</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>9</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>16</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>23</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" ht="16.5">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9">
+        <v>42998</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN4" s="14"/>
+    </row>
+    <row r="5" spans="1:53" ht="31.5">
+      <c r="C5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9">
+        <v>42998</v>
+      </c>
+      <c r="AN5" s="14"/>
+    </row>
+    <row r="6" spans="1:53">
+      <c r="C6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="9">
+        <v>42998</v>
+      </c>
+      <c r="AN6" s="14"/>
+    </row>
+    <row r="7" spans="1:53">
+      <c r="C7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9">
+        <v>42998</v>
+      </c>
+      <c r="AN7" s="14"/>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="C8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9">
+        <v>42998</v>
+      </c>
+      <c r="AN8" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="52.75" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="4.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" ht="17.25" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+    </row>
+    <row r="2" spans="1:53" ht="20.25" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1">
+        <v>11</v>
+      </c>
+      <c r="P2" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2">
+        <v>8</v>
+      </c>
+      <c r="S2" s="2">
+        <v>15</v>
+      </c>
+      <c r="T2" s="2">
+        <v>22</v>
+      </c>
+      <c r="U2" s="2">
+        <v>29</v>
+      </c>
+      <c r="V2" s="1">
+        <v>6</v>
+      </c>
+      <c r="W2" s="1">
+        <v>13</v>
+      </c>
+      <c r="X2" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>29</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>26</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>9</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>23</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>7</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>14</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>21</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>28</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>11</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>18</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>25</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>9</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>16</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>23</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" ht="16.5">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="9">
+        <v>42998</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="AN4" s="14"/>
+    </row>
+    <row r="5" spans="1:53">
+      <c r="C5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9">
+        <v>42998</v>
+      </c>
+      <c r="AN5" s="14"/>
+    </row>
+    <row r="6" spans="1:53">
+      <c r="C6" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BB11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="AN4" sqref="AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -818,86 +1981,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="17.25" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="16" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="17" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="16" t="s">
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="17" t="s">
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="16" t="s">
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="17" t="s">
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="16" t="s">
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="17" t="s">
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="16" t="s">
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="17" t="s">
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -1121,7 +2284,7 @@
     </row>
     <row r="4" spans="1:54">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>19</v>
@@ -1151,7 +2314,7 @@
     </row>
     <row r="7" spans="1:54">
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="9">
         <v>42992</v>
@@ -1160,93 +2323,46 @@
     </row>
     <row r="9" spans="1:54">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E9" s="9">
+        <v>42998</v>
+      </c>
+      <c r="AO9" s="14"/>
     </row>
     <row r="10" spans="1:54">
       <c r="C10" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E10" s="9">
+        <v>42998</v>
+      </c>
+      <c r="AO10" s="14"/>
     </row>
     <row r="11" spans="1:54">
-      <c r="C11" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:54">
-      <c r="A13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:54">
-      <c r="C14" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:54">
-      <c r="C15" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:54">
-      <c r="C16" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="C24" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="E11" s="9">
+        <v>42998</v>
+      </c>
+      <c r="AO11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:AX1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AX1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
